--- a/po-cond01.xlsx
+++ b/po-cond01.xlsx
@@ -528,7 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -605,10 +607,10 @@
         <v>1000</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -652,10 +654,10 @@
         <v>1000</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -699,10 +701,10 @@
         <v>1000</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -746,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -793,10 +795,10 @@
         <v>1000</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -840,10 +842,10 @@
         <v>1000</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -887,10 +889,10 @@
         <v>1000</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
         <v>12</v>
@@ -934,10 +936,10 @@
         <v>1000</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -981,10 +983,10 @@
         <v>1000</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
         <v>12</v>
@@ -1028,10 +1030,10 @@
         <v>1000</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
         <v>12</v>
@@ -1075,10 +1077,10 @@
         <v>1000</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>12</v>
@@ -1122,10 +1124,10 @@
         <v>1000</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -1169,10 +1171,10 @@
         <v>1000</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>12</v>
@@ -1216,10 +1218,10 @@
         <v>1000</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
         <v>12</v>

--- a/po-cond01.xlsx
+++ b/po-cond01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="2380" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>condN</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>gabNum</t>
+  </si>
+  <si>
+    <t>jitTmax</t>
   </si>
 </sst>
 </file>
@@ -526,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,31 +560,34 @@
         <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -604,31 +610,34 @@
         <v>0.01</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
@@ -651,31 +660,34 @@
         <v>0.01</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -698,31 +710,34 @@
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>4</v>
       </c>
@@ -745,31 +760,34 @@
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="H5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
@@ -792,31 +810,34 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -839,31 +860,34 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="H7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L7">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -886,31 +910,34 @@
         <v>0.1</v>
       </c>
       <c r="H8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L8">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
@@ -933,31 +960,34 @@
         <v>0.1</v>
       </c>
       <c r="H9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>9</v>
       </c>
@@ -980,31 +1010,34 @@
         <v>0.21540000000000001</v>
       </c>
       <c r="H10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J10">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L10">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1027,31 +1060,34 @@
         <v>0.21540000000000001</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J11">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1074,31 +1110,34 @@
         <v>0.4642</v>
       </c>
       <c r="H12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L12">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1121,31 +1160,34 @@
         <v>0.4642</v>
       </c>
       <c r="H13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L13">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1168,31 +1210,34 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L14">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1215,27 +1260,30 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="J15">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>0.2</v>
       </c>
       <c r="L15">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="O15">
+        <v>1.5</v>
+      </c>
+      <c r="P15">
         <v>34</v>
       </c>
     </row>

--- a/po-cond01.xlsx
+++ b/po-cond01.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/po-cond01.xlsx
+++ b/po-cond01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="2380" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="cond01.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>condN</t>
   </si>
@@ -27,48 +27,6 @@
     <t>condLabel</t>
   </si>
   <si>
-    <t>cont1_hi</t>
-  </si>
-  <si>
-    <t>cont1_lo</t>
-  </si>
-  <si>
-    <t>cont2_hi</t>
-  </si>
-  <si>
-    <t>cont2_lo</t>
-  </si>
-  <si>
-    <t>cont3_hi</t>
-  </si>
-  <si>
-    <t>cont3_lo</t>
-  </si>
-  <si>
-    <t>cont4_hi</t>
-  </si>
-  <si>
-    <t>cont4_lo</t>
-  </si>
-  <si>
-    <t>cont5_hi</t>
-  </si>
-  <si>
-    <t>cont5_lo</t>
-  </si>
-  <si>
-    <t>cont6_hi</t>
-  </si>
-  <si>
-    <t>cont6_lo</t>
-  </si>
-  <si>
-    <t>cont7_hi</t>
-  </si>
-  <si>
-    <t>cont7_lo</t>
-  </si>
-  <si>
     <t>singlCont</t>
   </si>
   <si>
@@ -90,15 +48,6 @@
     <t>odtT</t>
   </si>
   <si>
-    <t>vcSt</t>
-  </si>
-  <si>
-    <t>vcUp</t>
-  </si>
-  <si>
-    <t>vcDn</t>
-  </si>
-  <si>
     <t>postStimBlankT</t>
   </si>
   <si>
@@ -112,6 +61,54 @@
   </si>
   <si>
     <t>jitTmax</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>odtLoc</t>
+  </si>
+  <si>
+    <t>cont1_same</t>
+  </si>
+  <si>
+    <t>cont1_opp</t>
+  </si>
+  <si>
+    <t>cont2_same</t>
+  </si>
+  <si>
+    <t>cont2_opp</t>
+  </si>
+  <si>
+    <t>cont3_same</t>
+  </si>
+  <si>
+    <t>cont3_opp</t>
+  </si>
+  <si>
+    <t>cont4_same</t>
+  </si>
+  <si>
+    <t>cont4_opp</t>
+  </si>
+  <si>
+    <t>cont5_same</t>
+  </si>
+  <si>
+    <t>cont5_opp</t>
+  </si>
+  <si>
+    <t>cont6_same</t>
+  </si>
+  <si>
+    <t>cont6_opp</t>
+  </si>
+  <si>
+    <t>cont7_same</t>
+  </si>
+  <si>
+    <t>cont7_opp</t>
   </si>
 </sst>
 </file>
@@ -160,8 +157,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -192,6 +209,16 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -200,6 +227,16 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,15 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,746 +582,700 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0.8</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E2">
-        <v>0.05</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>1.5</v>
-      </c>
-      <c r="P2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E3">
-        <v>0.05</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>1.5</v>
-      </c>
-      <c r="P3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.8</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
       </c>
       <c r="G4">
-        <v>2.1499999999999998E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I4">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
-        <v>1.5</v>
-      </c>
-      <c r="P4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
       </c>
       <c r="G5">
-        <v>2.1499999999999998E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>1.5</v>
-      </c>
-      <c r="P5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0.8</v>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="E6">
-        <v>0.05</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
       </c>
       <c r="G6">
-        <v>4.6399999999999997E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
-        <v>1.5</v>
-      </c>
-      <c r="P6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.02</v>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
       </c>
       <c r="G7">
-        <v>4.6399999999999997E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H7">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K7">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>1.5</v>
-      </c>
-      <c r="P7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.8</v>
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="E8">
-        <v>0.05</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
       </c>
       <c r="G8">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H8">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K8">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>1.5</v>
-      </c>
-      <c r="P8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="E9">
-        <v>0.05</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K9">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>1.5</v>
-      </c>
-      <c r="P9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0.8</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="E10">
-        <v>0.05</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
       </c>
       <c r="G10">
-        <v>0.21540000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I10">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K10">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>1.5</v>
-      </c>
-      <c r="P10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
       </c>
       <c r="G11">
-        <v>0.21540000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>1.5</v>
-      </c>
-      <c r="P11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>0.8</v>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
       </c>
       <c r="G12">
-        <v>0.4642</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I12">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K12">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>1.5</v>
-      </c>
-      <c r="P12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
       </c>
       <c r="G13">
-        <v>0.4642</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>1.5</v>
-      </c>
-      <c r="P13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>0.8</v>
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
-        <v>500</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="K14">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>250</v>
+        <v>1.5</v>
       </c>
       <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>1.5</v>
-      </c>
-      <c r="P14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>250</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>1.5</v>
+      </c>
+      <c r="N15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>0.02</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
-        <v>0.05</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>500</v>
-      </c>
-      <c r="I15">
-        <v>1000</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
-      </c>
-      <c r="K15">
-        <v>0.2</v>
-      </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
-      <c r="M15">
-        <v>250</v>
-      </c>
-      <c r="N15">
-        <v>10</v>
-      </c>
-      <c r="O15">
-        <v>1.5</v>
-      </c>
-      <c r="P15">
-        <v>34</v>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>250</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.5</v>
+      </c>
+      <c r="N16">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/po-cond01.xlsx
+++ b/po-cond01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>condN</t>
   </si>
@@ -97,18 +97,6 @@
   </si>
   <si>
     <t>cont5_opp</t>
-  </si>
-  <si>
-    <t>cont6_same</t>
-  </si>
-  <si>
-    <t>cont6_opp</t>
-  </si>
-  <si>
-    <t>cont7_same</t>
-  </si>
-  <si>
-    <t>cont7_opp</t>
   </si>
 </sst>
 </file>
@@ -566,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -629,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -673,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -805,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -849,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -893,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -937,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -981,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1025,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1062,14 +1050,14 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1099,182 +1087,6 @@
         <v>1.5</v>
       </c>
       <c r="N12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0.64</v>
-      </c>
-      <c r="E13">
-        <v>500</v>
-      </c>
-      <c r="F13">
-        <v>1000</v>
-      </c>
-      <c r="G13">
-        <v>0.5</v>
-      </c>
-      <c r="H13">
-        <v>0.2</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <v>250</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
-      <c r="M13">
-        <v>1.5</v>
-      </c>
-      <c r="N13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>500</v>
-      </c>
-      <c r="F14">
-        <v>1000</v>
-      </c>
-      <c r="G14">
-        <v>0.5</v>
-      </c>
-      <c r="H14">
-        <v>0.2</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>250</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1.5</v>
-      </c>
-      <c r="N14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>500</v>
-      </c>
-      <c r="F15">
-        <v>1000</v>
-      </c>
-      <c r="G15">
-        <v>0.5</v>
-      </c>
-      <c r="H15">
-        <v>0.2</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>250</v>
-      </c>
-      <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="L15">
-        <v>6</v>
-      </c>
-      <c r="M15">
-        <v>1.5</v>
-      </c>
-      <c r="N15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>500</v>
-      </c>
-      <c r="F16">
-        <v>1000</v>
-      </c>
-      <c r="G16">
-        <v>0.5</v>
-      </c>
-      <c r="H16">
-        <v>0.2</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>250</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1.5</v>
-      </c>
-      <c r="N16">
         <v>17</v>
       </c>
     </row>

--- a/po-cond01.xlsx
+++ b/po-cond01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>condN</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>cont5_opp</t>
+  </si>
+  <si>
+    <t>maskOnOff</t>
+  </si>
+  <si>
+    <t>nRevs</t>
+  </si>
+  <si>
+    <t>stairUp</t>
+  </si>
+  <si>
+    <t>stairDn</t>
+  </si>
+  <si>
+    <t>dnDivUp</t>
   </si>
 </sst>
 </file>
@@ -229,6 +244,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -554,15 +574,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,8 +625,23 @@
       <c r="N1" t="s">
         <v>8</v>
       </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -635,7 +670,7 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -649,8 +684,23 @@
       <c r="N2">
         <v>17</v>
       </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -679,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -693,8 +743,23 @@
       <c r="N3">
         <v>17</v>
       </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -723,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="J4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -737,8 +802,23 @@
       <c r="N4">
         <v>17</v>
       </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -767,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="J5">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -781,8 +861,23 @@
       <c r="N5">
         <v>17</v>
       </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
@@ -811,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -825,8 +920,23 @@
       <c r="N6">
         <v>17</v>
       </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
@@ -855,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -869,8 +979,23 @@
       <c r="N7">
         <v>17</v>
       </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
@@ -899,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="J8">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -913,8 +1038,23 @@
       <c r="N8">
         <v>17</v>
       </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
@@ -943,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -957,8 +1097,23 @@
       <c r="N9">
         <v>17</v>
       </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
@@ -987,7 +1142,7 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1001,8 +1156,23 @@
       <c r="N10">
         <v>17</v>
       </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1031,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="J11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1045,8 +1215,23 @@
       <c r="N11">
         <v>17</v>
       </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1075,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1088,6 +1273,21 @@
       </c>
       <c r="N12">
         <v>17</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/po-cond01.xlsx
+++ b/po-cond01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>condN</t>
   </si>
@@ -111,7 +111,13 @@
     <t>stairDn</t>
   </si>
   <si>
-    <t>dnDivUp</t>
+    <t>stepUpMulti</t>
+  </si>
+  <si>
+    <t>stimRamp</t>
+  </si>
+  <si>
+    <t>rampLin</t>
   </si>
 </sst>
 </file>
@@ -574,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,37 +617,43 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
@@ -652,10 +664,10 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -670,37 +682,43 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1.5</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>17</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>4</v>
+      </c>
+      <c r="U2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2</v>
       </c>
@@ -711,10 +729,10 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -729,37 +747,43 @@
         <v>12</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>1.5</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>17</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>3</v>
       </c>
@@ -773,7 +797,7 @@
         <v>0.11</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -788,37 +812,43 @@
         <v>12</v>
       </c>
       <c r="J4">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>250</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1.5</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>17</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>4</v>
       </c>
@@ -832,7 +862,7 @@
         <v>0.11</v>
       </c>
       <c r="E5">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -847,37 +877,43 @@
         <v>12</v>
       </c>
       <c r="J5">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>250</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>1.5</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>17</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>5</v>
       </c>
@@ -891,7 +927,7 @@
         <v>0.22</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -906,37 +942,43 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>250</v>
+      </c>
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>1.5</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>17</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6</v>
       </c>
@@ -950,7 +992,7 @@
         <v>0.22</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -965,37 +1007,43 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>1.5</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>17</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1009,7 +1057,7 @@
         <v>0.47</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -1024,37 +1072,43 @@
         <v>12</v>
       </c>
       <c r="J8">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>250</v>
+      </c>
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1.5</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>17</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1068,7 +1122,7 @@
         <v>0.47</v>
       </c>
       <c r="E9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1083,37 +1137,43 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>250</v>
+      </c>
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>1.5</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>17</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1127,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -1142,37 +1202,43 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>250</v>
+      </c>
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>1.5</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>17</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1186,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -1201,37 +1267,43 @@
         <v>12</v>
       </c>
       <c r="J11">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>250</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>1.5</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>17</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1245,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -1260,33 +1332,39 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>250</v>
+      </c>
+      <c r="M12">
         <v>10</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>1.5</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>17</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
         <v>12</v>
       </c>
     </row>

--- a/po-cond01.xlsx
+++ b/po-cond01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>condN</t>
   </si>
@@ -69,12 +69,6 @@
     <t>odtLoc</t>
   </si>
   <si>
-    <t>cont1_same</t>
-  </si>
-  <si>
-    <t>cont1_opp</t>
-  </si>
-  <si>
     <t>cont2_same</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>rampLin</t>
+  </si>
+  <si>
+    <t>logStep</t>
+  </si>
+  <si>
+    <t>maskRamp</t>
   </si>
 </sst>
 </file>
@@ -166,8 +166,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -228,6 +230,7 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -246,6 +249,7 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,15 +584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,45 +621,51 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
         <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
       </c>
       <c r="U1" t="s">
         <v>27</v>
       </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -664,13 +674,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E2">
         <v>250</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G2">
         <v>0.5</v>
@@ -688,39 +698,45 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M2">
+        <v>250</v>
+      </c>
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
         <v>17</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>4</v>
       </c>
-      <c r="U2">
-        <v>12</v>
+      <c r="W2">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:23">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -729,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E3">
         <v>250</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G3">
         <v>0.5</v>
@@ -753,54 +769,60 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M3">
+        <v>250</v>
+      </c>
+      <c r="N3">
         <v>10</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
         <v>17</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>4</v>
       </c>
-      <c r="U3">
-        <v>12</v>
+      <c r="W3">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:23">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="E4">
         <v>250</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -818,54 +840,60 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M4">
+        <v>250</v>
+      </c>
+      <c r="N4">
         <v>10</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
         <v>17</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>4</v>
       </c>
-      <c r="U4">
-        <v>12</v>
+      <c r="W4">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:23">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="E5">
         <v>250</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G5">
         <v>0.5</v>
@@ -883,54 +911,60 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M5">
+        <v>250</v>
+      </c>
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
         <v>17</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
         <v>4</v>
       </c>
-      <c r="U5">
-        <v>12</v>
+      <c r="W5">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:23">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="E6">
         <v>250</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G6">
         <v>0.5</v>
@@ -948,54 +982,60 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M6">
+        <v>250</v>
+      </c>
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
         <v>17</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="U6">
-        <v>12</v>
+      <c r="W6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:23">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="E7">
         <v>250</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G7">
         <v>0.5</v>
@@ -1013,54 +1053,60 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M7">
+        <v>250</v>
+      </c>
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
         <v>17</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
         <v>4</v>
       </c>
-      <c r="U7">
-        <v>12</v>
+      <c r="W7">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:23">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>250</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G8">
         <v>0.5</v>
@@ -1078,54 +1124,60 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M8">
+        <v>250</v>
+      </c>
+      <c r="N8">
         <v>10</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
         <v>17</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <v>4</v>
       </c>
-      <c r="U8">
-        <v>12</v>
+      <c r="W8">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>250</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G9">
         <v>0.5</v>
@@ -1143,54 +1195,60 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M9">
+        <v>250</v>
+      </c>
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
       <c r="O9">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
         <v>17</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
         <v>4</v>
       </c>
-      <c r="U9">
-        <v>12</v>
+      <c r="W9">
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:23">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>250</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -1208,164 +1266,40 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="M10">
+        <v>250</v>
+      </c>
+      <c r="N10">
         <v>10</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
         <v>17</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
         <v>4</v>
       </c>
-      <c r="U10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>250</v>
-      </c>
-      <c r="F11">
-        <v>1000</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11">
-        <v>0.2</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>250</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1.5</v>
-      </c>
-      <c r="P11">
-        <v>17</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>250</v>
-      </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
-      <c r="H12">
-        <v>0.2</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>250</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1.5</v>
-      </c>
-      <c r="P12">
-        <v>17</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12">
-        <v>12</v>
+      <c r="W10">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
